--- a/BangKeHoach-DoAn1.xlsx
+++ b/BangKeHoach-DoAn1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hoc tap\Nam 3_HKI\Do_An_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9AE7D7-22EC-4B81-BB4C-D9C98CD1FD31}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06B0F66-EEE8-4666-BA67-8918BA653BF2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Kế Hoạch" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -45,9 +44,6 @@
   </si>
   <si>
     <t>KẾ HOẠCH THỰC HIỆN ĐỒ ÁN 1 - 2019</t>
-  </si>
-  <si>
-    <t>Đề tài: Xây dựng máy bán hàng theo mô hình client-server</t>
   </si>
   <si>
     <t>NGUYỄN HỮU NAM</t>
@@ -99,6 +95,9 @@
   </si>
   <si>
     <t>16/9/2019</t>
+  </si>
+  <si>
+    <t>Đề tài: Xây dựng phần mềm quản lý bán hàng theo mô hình client-server</t>
   </si>
 </sst>
 </file>
@@ -209,6 +208,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -216,7 +216,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,7 +564,7 @@
   <dimension ref="A1:W1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H14"/>
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -582,16 +581,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -609,16 +608,16 @@
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
-        <v>8</v>
+      <c r="A2" s="19" t="s">
+        <v>25</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -643,10 +642,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>2</v>
@@ -701,10 +700,10 @@
     </row>
     <row r="5" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>6</v>
@@ -716,7 +715,7 @@
         <v>43732</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -738,15 +737,15 @@
     </row>
     <row r="6" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>23</v>
+      <c r="E6" s="20" t="s">
+        <v>22</v>
       </c>
-      <c r="F6" s="19"/>
+      <c r="F6" s="20"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="8"/>
@@ -767,13 +766,13 @@
     </row>
     <row r="7" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="8"/>
@@ -793,8 +792,8 @@
       <c r="W7" s="8"/>
     </row>
     <row r="8" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="8"/>
@@ -815,10 +814,10 @@
     </row>
     <row r="9" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
@@ -850,7 +849,7 @@
     </row>
     <row r="10" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10" t="s">
@@ -882,16 +881,16 @@
     </row>
     <row r="11" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="10"/>
-      <c r="E11" s="19">
+      <c r="E11" s="20">
         <v>43686</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="20">
         <v>43808</v>
       </c>
       <c r="G11" s="7"/>
@@ -914,13 +913,13 @@
     </row>
     <row r="12" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="8"/>
@@ -941,7 +940,7 @@
     </row>
     <row r="13" spans="1:23" s="16" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>6</v>
@@ -949,8 +948,8 @@
       <c r="D13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="8"/>
@@ -971,7 +970,7 @@
     </row>
     <row r="14" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>6</v>
@@ -980,10 +979,10 @@
         <v>6</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>

--- a/BangKeHoach-DoAn1.xlsx
+++ b/BangKeHoach-DoAn1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hoc tap\Nam 3_HKI\Do_An_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06B0F66-EEE8-4666-BA67-8918BA653BF2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE06CFB-EF9C-4081-8D33-C7CCC2AAC59A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>DANH SÁCH CÔNG VIỆC</t>
   </si>
@@ -82,22 +82,52 @@
     <t>Kiểm tra, đảm bảo chương trình không xuất hiện exception</t>
   </si>
   <si>
-    <t>Viết báo cáo word, ppt…</t>
-  </si>
-  <si>
     <t>25/9/2019</t>
   </si>
   <si>
-    <t>26-27/9/2019</t>
+    <t>Đề tài: Xây dựng phần mềm quản lý bán hàng theo mô hình client-server</t>
   </si>
   <si>
-    <t>15/9/2019</t>
+    <t>15/10/2019</t>
   </si>
   <si>
-    <t>16/9/2019</t>
+    <t>16/10/2019</t>
   </si>
   <si>
-    <t>Đề tài: Xây dựng phần mềm quản lý bán hàng theo mô hình client-server</t>
+    <t>17/10/2019</t>
+  </si>
+  <si>
+    <t>20/10/2019</t>
+  </si>
+  <si>
+    <t>21/10/2019</t>
+  </si>
+  <si>
+    <t>Viết báo cáo word</t>
+  </si>
+  <si>
+    <t>Báo cáo powerpoint</t>
+  </si>
+  <si>
+    <t>23/10/2019</t>
+  </si>
+  <si>
+    <t>22/9/2019</t>
+  </si>
+  <si>
+    <t>24/10/2019</t>
+  </si>
+  <si>
+    <t>26/9/2019</t>
+  </si>
+  <si>
+    <t>27/9/2019</t>
+  </si>
+  <si>
+    <t>28/9/2019</t>
+  </si>
+  <si>
+    <t>29/2019</t>
   </si>
 </sst>
 </file>
@@ -209,12 +239,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -564,7 +594,7 @@
   <dimension ref="A1:W1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+      <selection activeCell="E7" sqref="E7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -581,16 +611,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -608,16 +638,16 @@
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>25</v>
+      <c r="A2" s="20" t="s">
+        <v>21</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -711,11 +741,11 @@
       <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="19">
         <v>43732</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>21</v>
+      <c r="F5" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -742,10 +772,12 @@
       <c r="C6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="20" t="s">
-        <v>22</v>
+      <c r="E6" s="19" t="s">
+        <v>32</v>
       </c>
-      <c r="F6" s="20"/>
+      <c r="F6" s="19" t="s">
+        <v>33</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="8"/>
@@ -771,8 +803,12 @@
       <c r="C7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="E7" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>35</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="8"/>
@@ -823,10 +859,10 @@
       <c r="D9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="19">
         <v>43738</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="19">
         <v>43474</v>
       </c>
       <c r="G9" s="7"/>
@@ -855,11 +891,11 @@
       <c r="D10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="7">
-        <v>43505</v>
+      <c r="E10" s="19">
+        <v>43506</v>
       </c>
-      <c r="F10" s="7">
-        <v>43594</v>
+      <c r="F10" s="19">
+        <v>43595</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -887,11 +923,11 @@
         <v>6</v>
       </c>
       <c r="D11" s="10"/>
-      <c r="E11" s="20">
-        <v>43686</v>
+      <c r="E11" s="19">
+        <v>43687</v>
       </c>
-      <c r="F11" s="20">
-        <v>43808</v>
+      <c r="F11" s="19">
+        <v>43809</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -918,8 +954,12 @@
       <c r="D12" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
+      <c r="E12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>23</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="8"/>
@@ -948,8 +988,12 @@
       <c r="D13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
+      <c r="E13" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="8"/>
@@ -970,7 +1014,7 @@
     </row>
     <row r="14" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>6</v>
@@ -978,11 +1022,11 @@
       <c r="D14" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>23</v>
+      <c r="E14" s="19" t="s">
+        <v>26</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>24</v>
+      <c r="F14" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -1003,11 +1047,19 @@
       <c r="W14" s="8"/>
     </row>
     <row r="15" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
+      <c r="B15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="D15" s="10"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="E15" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="8"/>
@@ -20791,12 +20843,9 @@
       <c r="S1001" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/BangKeHoach-DoAn1.xlsx
+++ b/BangKeHoach-DoAn1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hoc tap\Nam 3_HKI\Do_An_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hoc tap\Nam 3_HKI\OOP\Do AN\Remake\Backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE06CFB-EF9C-4081-8D33-C7CCC2AAC59A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAC0A17-EEA0-4DEE-8A01-5606CE2F88FD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>DANH SÁCH CÔNG VIỆC</t>
   </si>
@@ -112,9 +112,6 @@
     <t>23/10/2019</t>
   </si>
   <si>
-    <t>22/9/2019</t>
-  </si>
-  <si>
     <t>24/10/2019</t>
   </si>
   <si>
@@ -127,7 +124,10 @@
     <t>28/9/2019</t>
   </si>
   <si>
-    <t>29/2019</t>
+    <t>29/9/2019</t>
+  </si>
+  <si>
+    <t>22/10/2019</t>
   </si>
 </sst>
 </file>
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:F7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="116" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -747,8 +747,12 @@
       <c r="F5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -773,13 +777,17 @@
         <v>6</v>
       </c>
       <c r="E6" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>33</v>
+      <c r="G6" s="7" t="s">
+        <v>32</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -804,13 +812,17 @@
         <v>6</v>
       </c>
       <c r="E7" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>35</v>
+      <c r="G7" s="7" t="s">
+        <v>33</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="H7" s="7">
+        <v>43741</v>
+      </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -863,10 +875,14 @@
         <v>43738</v>
       </c>
       <c r="F9" s="19">
-        <v>43474</v>
+        <v>43739</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="G9" s="7">
+        <v>43741</v>
+      </c>
+      <c r="H9" s="7">
+        <v>43743</v>
+      </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -892,10 +908,10 @@
         <v>6</v>
       </c>
       <c r="E10" s="19">
-        <v>43506</v>
+        <v>43740</v>
       </c>
       <c r="F10" s="19">
-        <v>43595</v>
+        <v>43743</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -924,10 +940,10 @@
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="19">
-        <v>43687</v>
+        <v>43746</v>
       </c>
       <c r="F11" s="19">
-        <v>43809</v>
+        <v>43750</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -1026,7 +1042,7 @@
         <v>26</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -1058,7 +1074,7 @@
         <v>29</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
